--- a/05a.xlsx
+++ b/05a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F02A0-E6CF-411B-B5FA-014CDF144F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70664D-4328-4742-AA5A-3E2AD2026B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3922" yWindow="1522" windowWidth="28231" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="1132" yWindow="368" windowWidth="28231" windowHeight="15097" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="四分位範囲（EXC）" sheetId="1" r:id="rId1"/>
@@ -440,13 +440,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,9 +483,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +532,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,13 +1596,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1607,46 +1610,46 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -1657,19 +1660,19 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10">
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1708,13 +1711,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1722,7 +1725,7 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1730,10 +1733,10 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <f t="shared" ref="D3:D5" si="0">_xlfn.QUARTILE.EXC($A$2:$A$12,C3)</f>
         <v>7</v>
       </c>
@@ -1742,10 +1745,10 @@
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1754,10 +1757,10 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -1766,10 +1769,10 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -1780,10 +1783,10 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f>D5-D3</f>
         <v>16</v>
       </c>
@@ -1792,10 +1795,10 @@
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>D8/2</f>
         <v>8</v>
       </c>
@@ -1809,16 +1812,16 @@
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>_xlfn.STDEV.P(A2:A12)</f>
         <v>25.501579921887128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1844,13 +1847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1858,45 +1861,46 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -1907,19 +1911,19 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10">
@@ -1932,7 +1936,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1948,7 +1952,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1958,13 +1962,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1972,10 +1976,10 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <f>_xlfn.QUARTILE.INC($A$2:$A$12,C2)</f>
         <v>4</v>
       </c>
@@ -1984,10 +1988,10 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <f>_xlfn.QUARTILE.INC($A$2:$A$12,C3)</f>
         <v>8</v>
       </c>
@@ -1996,10 +2000,10 @@
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f t="shared" ref="D4:D6" si="0">_xlfn.QUARTILE.INC($A$2:$A$12,C4)</f>
         <v>13</v>
       </c>
@@ -2008,10 +2012,10 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2020,10 +2024,10 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -2037,10 +2041,10 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f>D5-D3</f>
         <v>13</v>
       </c>
@@ -2049,10 +2053,10 @@
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>D8/2</f>
         <v>6.5</v>
       </c>
@@ -2068,7 +2072,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>99</v>
       </c>
     </row>
@@ -2099,418 +2103,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="18"/>
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14">
         <f>_xlfn.QUARTILE.INC($A$2:$A$12,C2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="21">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <f t="shared" ref="D3:D5" si="0">_xlfn.QUARTILE.EXC($A$2:$A$12,C3)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <f t="shared" ref="E3:E6" si="1">_xlfn.QUARTILE.INC($A$2:$A$12,C3)</f>
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="26">
         <f>(H2+1)*25%</f>
         <v>3</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="26">
         <f>(K2-1)*25%+1</f>
         <v>3.5</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <f>INT(H3)</f>
         <v>3</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <f>INT(K3)</f>
         <v>3</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <f>H3-H4</f>
         <v>0</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="22">
         <f>K3-K4</f>
         <v>0.5</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <f>SMALL($A$2:$A$12,H4)</f>
         <v>7</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="22">
         <f>SMALL($A$2:$A$12,K4)</f>
         <v>7</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>13</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="21" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <f>SMALL($A$2:$A$12,H4+1)</f>
         <v>9</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="22">
         <f>SMALL($A$2:$A$12,K4+1)</f>
         <v>9</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f>D5-D3</f>
         <v>16</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <f>E5-E3</f>
         <v>13</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="28">
         <f>H6+(H7-H6)*H5</f>
         <v>7</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="30">
         <f>K6+(K7-K6)*K5</f>
         <v>8</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <f>D8/2</f>
         <v>8</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <f>E8/2</f>
         <v>6.5</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>23</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="25" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <f>(H11+1)*75%</f>
         <v>9</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="25" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <f>(K11-1)*75%+1</f>
         <v>8.5</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <f>INT(H12)</f>
         <v>9</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <f>INT(K12)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <f>H12-H13</f>
         <v>0</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <f>K12-K13</f>
         <v>0.5</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <f>SMALL($A$2:$A$12,H13)</f>
         <v>23</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="22">
         <f>SMALL($A$2:$A$12,K13)</f>
         <v>19</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <f>SMALL($A$2:$A$11,H13+1)</f>
         <v>25</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="25" t="s">
+      <c r="I16" s="16"/>
+      <c r="J16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <f>SMALL($A$2:$A$12,K13+1)</f>
         <v>23</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.7">
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="28">
         <f>H15+(H16-H15)*H14</f>
         <v>23</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="30">
         <f>K15+(K16-K15)*K14</f>
         <v>21</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.7">
-      <c r="I18" s="18"/>
-      <c r="L18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.7">
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="16"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2528,10 +2532,10 @@
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2608,10 +2612,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>59</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>70</v>
       </c>
     </row>

--- a/05a.xlsx
+++ b/05a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70664D-4328-4742-AA5A-3E2AD2026B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450C00E4-536E-4F34-A534-E9307A84E782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1132" yWindow="368" windowWidth="28231" windowHeight="15097" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="3337" yWindow="2573" windowWidth="28231" windowHeight="15097" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="四分位範囲（EXC）" sheetId="1" r:id="rId1"/>
@@ -440,16 +440,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,9 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,10 +528,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1599,10 +1590,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1610,46 +1601,45 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -1660,19 +1650,19 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10">
@@ -1685,7 +1675,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>99</v>
       </c>
     </row>
@@ -1714,10 +1704,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1725,7 +1715,7 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1733,10 +1723,10 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D5" si="0">_xlfn.QUARTILE.EXC($A$2:$A$12,C3)</f>
         <v>7</v>
       </c>
@@ -1745,10 +1735,10 @@
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1757,10 +1747,10 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -1769,10 +1759,10 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -1783,10 +1773,10 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>D5-D3</f>
         <v>16</v>
       </c>
@@ -1795,10 +1785,10 @@
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>D8/2</f>
         <v>8</v>
       </c>
@@ -1812,16 +1802,16 @@
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>_xlfn.STDEV.P(A2:A12)</f>
         <v>25.501579921887128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>99</v>
       </c>
     </row>
@@ -1850,10 +1840,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1861,46 +1851,46 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -1911,19 +1901,19 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10">
@@ -1936,7 +1926,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>99</v>
       </c>
     </row>
@@ -1952,7 +1942,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1965,10 +1955,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1976,10 +1966,10 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <f>_xlfn.QUARTILE.INC($A$2:$A$12,C2)</f>
         <v>4</v>
       </c>
@@ -1988,10 +1978,10 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <f>_xlfn.QUARTILE.INC($A$2:$A$12,C3)</f>
         <v>8</v>
       </c>
@@ -2000,10 +1990,10 @@
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D6" si="0">_xlfn.QUARTILE.INC($A$2:$A$12,C4)</f>
         <v>13</v>
       </c>
@@ -2012,10 +2002,10 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2024,10 +2014,10 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -2041,10 +2031,10 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>D5-D3</f>
         <v>13</v>
       </c>
@@ -2053,10 +2043,10 @@
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>D8/2</f>
         <v>6.5</v>
       </c>
@@ -2072,7 +2062,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>99</v>
       </c>
     </row>
@@ -2106,415 +2096,415 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
         <f>_xlfn.QUARTILE.INC($A$2:$A$12,C2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <f t="shared" ref="D3:D5" si="0">_xlfn.QUARTILE.EXC($A$2:$A$12,C3)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E6" si="1">_xlfn.QUARTILE.INC($A$2:$A$12,C3)</f>
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <f>(H2+1)*25%</f>
         <v>3</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <f>(K2-1)*25%+1</f>
         <v>3.5</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <f>INT(H3)</f>
         <v>3</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <f>INT(K3)</f>
         <v>3</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <f>H3-H4</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="23" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <f>K3-K4</f>
         <v>0.5</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <f>SMALL($A$2:$A$12,H4)</f>
         <v>7</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <f>SMALL($A$2:$A$12,K4)</f>
         <v>7</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>13</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="19" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <f>SMALL($A$2:$A$12,H4+1)</f>
         <v>9</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <f>SMALL($A$2:$A$12,K4+1)</f>
         <v>9</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <f>D5-D3</f>
         <v>16</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f>E5-E3</f>
         <v>13</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <f>H6+(H7-H6)*H5</f>
         <v>7</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="28">
         <f>K6+(K7-K6)*K5</f>
         <v>8</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <f>D8/2</f>
         <v>8</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <f>E8/2</f>
         <v>6.5</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>23</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="23" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <f>COUNT($A$2:$A$12)</f>
         <v>11</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <f>(H11+1)*75%</f>
         <v>9</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="23" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <f>(K11-1)*75%+1</f>
         <v>8.5</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <f>INT(H12)</f>
         <v>9</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="20">
         <f>INT(K12)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <f>H12-H13</f>
         <v>0</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <f>K12-K13</f>
         <v>0.5</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <f>SMALL($A$2:$A$12,H13)</f>
         <v>23</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="23" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <f>SMALL($A$2:$A$12,K13)</f>
         <v>19</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <f>SMALL($A$2:$A$11,H13+1)</f>
         <v>25</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="20">
         <f>SMALL($A$2:$A$12,K13+1)</f>
         <v>23</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.7">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="26">
         <f>H15+(H16-H15)*H14</f>
         <v>23</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="28">
         <f>K15+(K16-K15)*K14</f>
         <v>21</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.7">
-      <c r="I18" s="16"/>
-      <c r="L18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.7">
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2612,10 +2602,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>59</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>70</v>
       </c>
     </row>
